--- a/model_iterations_parameter_tuning.xlsx
+++ b/model_iterations_parameter_tuning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camih\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camih\Desktop\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10193BC5-CDDE-4432-8E5E-0EDECA942DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E528C13-440F-43A5-8FDF-4A263963DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="1050" windowWidth="15930" windowHeight="11490" activeTab="1" xr2:uid="{77935CCD-56FB-4385-8FB8-F2DAADDBB8ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77935CCD-56FB-4385-8FB8-F2DAADDBB8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="rf_model_v1_demo_loc" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -125,6 +124,280 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>392879</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368897</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B83E79-0C32-A06B-472B-3CA6BA36708D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260529" y="186690"/>
+          <a:ext cx="6072018" cy="3499485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223753</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1183354</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178427F5-FD14-279B-629E-41EC928A55D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048993" y="3009900"/>
+          <a:ext cx="3763761" cy="2775585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C12696-B2B4-48BD-61CB-DF5982AB1D8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8290560" y="3710940"/>
+          <a:ext cx="4496427" cy="2095792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1203959</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB06928-9C3F-1814-3596-EAC2D2548761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114799" y="2741296"/>
+          <a:ext cx="3962401" cy="2838912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257914</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>405107</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B74721-F204-474F-DCF3-310AA9A4BBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8373214" y="297181"/>
+          <a:ext cx="5633593" cy="3261360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>436928</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>117730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108DEE26-067D-5F65-BF39-20BBEA1B0F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8336280" y="3636646"/>
+          <a:ext cx="4483148" cy="1967484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C84538-DD7F-4C16-87C1-1D8409E2BD89}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +776,7 @@
         <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0.90700000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -549,7 +822,7 @@
         <v>1.37</v>
       </c>
       <c r="G4">
-        <v>0.91200000000000003</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -572,7 +845,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G5">
-        <v>0.9</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -595,30 +868,30 @@
         <v>3.06</v>
       </c>
       <c r="G6">
-        <v>0.91100000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7">
+        <v>50000</v>
+      </c>
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>3.01</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.94299999999999995</v>
+      <c r="G7">
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -641,7 +914,7 @@
         <v>3.66</v>
       </c>
       <c r="G8">
-        <v>0.90700000000000003</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -664,30 +937,30 @@
         <v>3.93</v>
       </c>
       <c r="G9">
-        <v>0.92100000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>50000</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B10" s="2">
         <v>45</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
         <v>6.75</v>
       </c>
-      <c r="G10">
-        <v>0.92600000000000005</v>
+      <c r="G10" s="2">
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -714,11 +987,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>50000</v>
-      </c>
-      <c r="B12" s="2">
-        <v>30</v>
+      <c r="A12">
+        <v>50000</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -730,10 +1003,10 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1.46</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G12">
-        <v>0.92600000000000005</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -741,95 +1014,73 @@
         <v>50000</v>
       </c>
       <c r="B13" s="2">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>50000</v>
+      </c>
+      <c r="B14">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>1.93</v>
-      </c>
-      <c r="G13">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>3.52</v>
+      </c>
+      <c r="G14">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B15" s="1">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="G15" s="1">
         <v>0.95099999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>50000</v>
-      </c>
-      <c r="B15" s="2">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>2.89</v>
-      </c>
-      <c r="G15">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>50000</v>
-      </c>
-      <c r="B16" s="2">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>2.71</v>
-      </c>
-      <c r="G16">
-        <v>0.96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -837,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA2513-07FA-4104-8386-5EF6D93C4464}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +1146,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G2">
-        <v>0.879</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -922,26 +1173,26 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>50000</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.63400000000000001</v>
       </c>
-      <c r="G4">
-        <v>0.93700000000000006</v>
+      <c r="G4" s="1">
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -964,7 +1215,7 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="G5">
-        <v>0.91100000000000003</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -987,30 +1238,30 @@
         <v>1.08</v>
       </c>
       <c r="G6">
-        <v>0.91800000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>50000</v>
-      </c>
-      <c r="B7" s="3">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="2">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
         <v>1.34</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.95</v>
+      <c r="G7" s="2">
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1033,53 +1284,53 @@
         <v>1.69</v>
       </c>
       <c r="G8">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>50000</v>
-      </c>
-      <c r="B9">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B9" s="2">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.60399999999999998</v>
       </c>
-      <c r="G9">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="G9" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B10" s="2">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
         <v>0.83</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.95299999999999996</v>
+      <c r="G10" s="2">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1102,7 +1353,7 @@
         <v>1.01</v>
       </c>
       <c r="G11">
-        <v>0.92200000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1110,48 +1361,49 @@
         <v>50000</v>
       </c>
       <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G12">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>0.85</v>
-      </c>
-      <c r="G12">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>50000</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.83</v>
       </c>
-      <c r="G13">
-        <v>0.92</v>
+      <c r="G13" s="2">
+        <v>0.85199999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>